--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -1,36 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangd\Documents\USTH\2nd year\Advanced Programming with Python\Taxi-Information-Management-System-\Code Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C05FA-57C3-4844-8179-0034D1EB90DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12F453D-8CAF-4D7C-A62F-DF98647708D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="1" r:id="rId1"/>
     <sheet name="Customer" sheetId="2" r:id="rId2"/>
     <sheet name="Vehicle" sheetId="3" r:id="rId3"/>
     <sheet name="Invoice" sheetId="4" r:id="rId4"/>
-    <sheet name="Route" sheetId="6" r:id="rId5"/>
-    <sheet name="Feedback" sheetId="5" r:id="rId6"/>
+    <sheet name="Feedback" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -429,33 +439,20 @@
   </si>
   <si>
     <t>price_per_km</t>
-  </si>
-  <si>
-    <t>HN-LS</t>
-  </si>
-  <si>
-    <t>HN-HCM</t>
-  </si>
-  <si>
-    <t>HN-TN</t>
-  </si>
-  <si>
-    <t>route</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\(\+\8\4\)\ ###\ ###\ ####"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,12 +492,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri "/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF040C28"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -523,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -535,9 +526,6 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -855,17 +843,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21DB4D1-962D-406B-8B67-B7481A2A798D}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="7" max="7" width="3.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -905,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="6">
-        <v>6419647</v>
+        <v>15000000</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -928,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="6">
-        <v>6546085</v>
+        <v>12000000</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -951,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="6">
-        <v>9165347</v>
+        <v>14000000</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -975,7 +963,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="6">
-        <v>4505893</v>
+        <v>15000000</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -999,7 +987,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="6">
-        <v>6735836</v>
+        <v>17000000</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1023,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6">
-        <v>6644680</v>
+        <v>17000000</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1047,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="6">
-        <v>7118066</v>
+        <v>20000000</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -1071,7 +1059,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="6">
-        <v>6320557</v>
+        <v>19000000</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -1095,7 +1083,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="6">
-        <v>8126722</v>
+        <v>19000000</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1119,7 +1107,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="6">
-        <v>7568996</v>
+        <v>16000000</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1144,10 +1132,10 @@
       <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1282,13 +1270,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B1ABD5-6910-4F95-BD6B-7BAE0ACE3857}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1466,20 +1454,20 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1499,7 +1487,7 @@
         <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>132</v>
@@ -1512,11 +1500,13 @@
       <c r="A2" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
+      <c r="B2" t="str">
+        <f>Customer!A2</f>
+        <v>C1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Driver!A2</f>
+        <v>D1</v>
       </c>
       <c r="D2" s="8">
         <v>45061</v>
@@ -1524,25 +1514,28 @@
       <c r="E2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" t="s">
-        <v>133</v>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="G2" s="7">
         <v>10000</v>
       </c>
       <c r="H2" s="2">
-        <v>1535000</v>
+        <f>F2*G2</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>99</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
+      <c r="B3" t="str">
+        <f>Customer!A3</f>
+        <v>C2</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Driver!A3</f>
+        <v>D2</v>
       </c>
       <c r="D3" s="8">
         <v>45062</v>
@@ -1550,25 +1543,28 @@
       <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="F3" t="s">
-        <v>134</v>
+      <c r="F3">
+        <v>8</v>
       </c>
       <c r="G3" s="2">
         <v>15000</v>
       </c>
       <c r="H3" s="2">
-        <v>23910000</v>
+        <f t="shared" ref="H3:H11" si="0">F3*G3</f>
+        <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
+      <c r="B4" t="str">
+        <f>Customer!A4</f>
+        <v>C3</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Driver!A4</f>
+        <v>D3</v>
       </c>
       <c r="D4" s="8">
         <v>45103</v>
@@ -1576,25 +1572,28 @@
       <c r="E4" t="s">
         <v>109</v>
       </c>
-      <c r="F4" t="s">
-        <v>135</v>
+      <c r="F4">
+        <v>11</v>
       </c>
       <c r="G4" s="2">
         <v>13000</v>
       </c>
       <c r="H4" s="2">
-        <v>1040000</v>
+        <f t="shared" si="0"/>
+        <v>143000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
+      <c r="B5" t="str">
+        <f>Customer!A5</f>
+        <v>C4</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Driver!A5</f>
+        <v>D4</v>
       </c>
       <c r="D5" s="8">
         <v>45210</v>
@@ -1602,25 +1601,28 @@
       <c r="E5" t="s">
         <v>108</v>
       </c>
-      <c r="F5" t="s">
-        <v>133</v>
+      <c r="F5">
+        <v>20</v>
       </c>
       <c r="G5" s="7">
         <v>10000</v>
       </c>
       <c r="H5" s="2">
-        <v>1535000</v>
+        <f t="shared" si="0"/>
+        <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
+      <c r="B6" t="str">
+        <f>Customer!A6</f>
+        <v>C5</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Driver!A6</f>
+        <v>D5</v>
       </c>
       <c r="D6" s="8">
         <v>45243</v>
@@ -1628,25 +1630,28 @@
       <c r="E6" t="s">
         <v>109</v>
       </c>
-      <c r="F6" t="s">
-        <v>134</v>
+      <c r="F6">
+        <v>16</v>
       </c>
       <c r="G6" s="7">
         <v>10000</v>
       </c>
       <c r="H6" s="2">
-        <v>23910000</v>
+        <f t="shared" si="0"/>
+        <v>160000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
+      <c r="B7" t="str">
+        <f>Customer!A7</f>
+        <v>C6</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Driver!A7</f>
+        <v>D6</v>
       </c>
       <c r="D7" s="8">
         <v>45132</v>
@@ -1654,25 +1659,28 @@
       <c r="E7" t="s">
         <v>108</v>
       </c>
-      <c r="F7" t="s">
-        <v>135</v>
+      <c r="F7">
+        <v>21</v>
       </c>
       <c r="G7" s="2">
         <v>13000</v>
       </c>
       <c r="H7" s="2">
-        <v>1040000</v>
+        <f t="shared" si="0"/>
+        <v>273000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
+      <c r="B8" t="str">
+        <f>Customer!A8</f>
+        <v>C7</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Driver!A8</f>
+        <v>D7</v>
       </c>
       <c r="D8" s="8">
         <v>45203</v>
@@ -1680,25 +1688,28 @@
       <c r="E8" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>133</v>
+      <c r="F8">
+        <v>17</v>
       </c>
       <c r="G8" s="2">
         <v>13000</v>
       </c>
       <c r="H8" s="2">
-        <v>1535000</v>
+        <f t="shared" si="0"/>
+        <v>221000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" t="s">
-        <v>85</v>
+      <c r="B9" t="str">
+        <f>Customer!A9</f>
+        <v>C8</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Driver!A9</f>
+        <v>D8</v>
       </c>
       <c r="D9" s="8">
         <v>45216</v>
@@ -1706,25 +1717,28 @@
       <c r="E9" t="s">
         <v>109</v>
       </c>
-      <c r="F9" t="s">
-        <v>134</v>
+      <c r="F9">
+        <v>7</v>
       </c>
       <c r="G9" s="2">
         <v>15000</v>
       </c>
       <c r="H9" s="2">
-        <v>23910000</v>
+        <f t="shared" si="0"/>
+        <v>105000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>106</v>
       </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
+      <c r="B10" t="str">
+        <f>Customer!A10</f>
+        <v>C9</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Driver!A10</f>
+        <v>D9</v>
       </c>
       <c r="D10" s="8">
         <v>45237</v>
@@ -1732,25 +1746,28 @@
       <c r="E10" t="s">
         <v>108</v>
       </c>
-      <c r="F10" t="s">
-        <v>135</v>
+      <c r="F10">
+        <v>6</v>
       </c>
       <c r="G10" s="2">
         <v>15000</v>
       </c>
       <c r="H10" s="2">
-        <v>1040000</v>
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>107</v>
       </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
+      <c r="B11" t="str">
+        <f>Customer!A11</f>
+        <v>C10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Driver!A11</f>
+        <v>D10</v>
       </c>
       <c r="D11" s="8">
         <v>45263</v>
@@ -1758,14 +1775,15 @@
       <c r="E11" t="s">
         <v>109</v>
       </c>
-      <c r="F11" t="s">
-        <v>133</v>
+      <c r="F11">
+        <v>3</v>
       </c>
       <c r="G11" s="7">
         <v>10000</v>
       </c>
       <c r="H11" s="2">
-        <v>1535000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -1776,70 +1794,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B3E475-1B99-4BEA-A22D-56D7F1908014}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="10">
-        <v>153.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="10">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E9938-6653-4FDF-B2FB-FC59F5322A7A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.90625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1863,8 +1830,9 @@
       <c r="A2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
+      <c r="B2" t="str">
+        <f>Customer!A2</f>
+        <v>C1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1880,8 +1848,9 @@
       <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
-        <v>89</v>
+      <c r="B3" t="str">
+        <f>Customer!A3</f>
+        <v>C2</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1897,8 +1866,9 @@
       <c r="A4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
+      <c r="B4" t="str">
+        <f>Customer!A4</f>
+        <v>C3</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1914,8 +1884,9 @@
       <c r="A5" t="s">
         <v>115</v>
       </c>
-      <c r="B5" t="s">
-        <v>91</v>
+      <c r="B5" t="str">
+        <f>Customer!A5</f>
+        <v>C4</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1931,8 +1902,9 @@
       <c r="A6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
+      <c r="B6" t="str">
+        <f>Customer!A6</f>
+        <v>C5</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1948,8 +1920,9 @@
       <c r="A7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
-        <v>93</v>
+      <c r="B7" t="str">
+        <f>Customer!A7</f>
+        <v>C6</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1965,8 +1938,9 @@
       <c r="A8" t="s">
         <v>118</v>
       </c>
-      <c r="B8" t="s">
-        <v>94</v>
+      <c r="B8" t="str">
+        <f>Customer!A8</f>
+        <v>C7</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1982,8 +1956,9 @@
       <c r="A9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" t="s">
-        <v>95</v>
+      <c r="B9" t="str">
+        <f>Customer!A9</f>
+        <v>C8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1999,8 +1974,9 @@
       <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>96</v>
+      <c r="B10" t="str">
+        <f>Customer!A10</f>
+        <v>C9</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2016,8 +1992,9 @@
       <c r="A11" t="s">
         <v>121</v>
       </c>
-      <c r="B11" t="s">
-        <v>97</v>
+      <c r="B11" t="str">
+        <f>Customer!A11</f>
+        <v>C10</v>
       </c>
       <c r="C11">
         <v>4</v>

--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangd\Documents\USTH\2nd year\Advanced Programming with Python\Taxi-Information-Management-System-\Code Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12F453D-8CAF-4D7C-A62F-DF98647708D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9493C2A-ACFF-4C9F-80D5-5392F20D9809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Vehicle" sheetId="3" r:id="rId3"/>
     <sheet name="Invoice" sheetId="4" r:id="rId4"/>
     <sheet name="Feedback" sheetId="5" r:id="rId5"/>
+    <sheet name="Price per Km" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -159,66 +160,6 @@
     <t>Martel</t>
   </si>
   <si>
-    <t>+84 121 886 2351</t>
-  </si>
-  <si>
-    <t>+84 121 469 3982</t>
-  </si>
-  <si>
-    <t>+84 121 879 7861</t>
-  </si>
-  <si>
-    <t>+84 121 218 2111</t>
-  </si>
-  <si>
-    <t>+84 121 535 2864</t>
-  </si>
-  <si>
-    <t>+84 121 064 4186</t>
-  </si>
-  <si>
-    <t>+84 121 359 7202</t>
-  </si>
-  <si>
-    <t>+84 121 002 0227</t>
-  </si>
-  <si>
-    <t>+84 121 378 0201</t>
-  </si>
-  <si>
-    <t>+84 121 444 9777</t>
-  </si>
-  <si>
-    <t>+84 121 235 9286</t>
-  </si>
-  <si>
-    <t>+84 121 368 9528</t>
-  </si>
-  <si>
-    <t>+84 121 742 2954</t>
-  </si>
-  <si>
-    <t>+84 121 075 7582</t>
-  </si>
-  <si>
-    <t>+84 121 523 7028</t>
-  </si>
-  <si>
-    <t>+84 121 549 7909</t>
-  </si>
-  <si>
-    <t>+84 121 595 4415</t>
-  </si>
-  <si>
-    <t>+84 121 102 8462</t>
-  </si>
-  <si>
-    <t>+84 121 245 7829</t>
-  </si>
-  <si>
-    <t>+84 121 075 3912</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -439,6 +380,21 @@
   </si>
   <si>
     <t>price_per_km</t>
+  </si>
+  <si>
+    <t>5s</t>
+  </si>
+  <si>
+    <t>no of seats</t>
+  </si>
+  <si>
+    <t>price per km</t>
+  </si>
+  <si>
+    <t>7s</t>
+  </si>
+  <si>
+    <t>9s</t>
   </si>
 </sst>
 </file>
@@ -841,10 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21DB4D1-962D-406B-8B67-B7481A2A798D}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,13 +838,14 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>48</v>
+      <c r="C2" s="5" t="str">
+        <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0962477921</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>19</v>
@@ -904,13 +862,14 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0904331550</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -927,13 +886,14 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
+      <c r="C4" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0952238995</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>21</v>
@@ -951,13 +911,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>41</v>
+      <c r="C5" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0994007366</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -975,13 +936,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>42</v>
+      <c r="C6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0905692102</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -999,13 +961,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
+      <c r="C7" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0935960925</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>24</v>
@@ -1023,13 +986,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
+      <c r="C8" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0929069754</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
@@ -1047,13 +1011,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
+      <c r="C9" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0937851666</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>26</v>
@@ -1071,13 +1036,14 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
+      <c r="C10" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0995345699</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
@@ -1095,13 +1061,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>47</v>
+      <c r="C11" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0926964141</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -1126,10 +1093,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39120E7-1E9E-45C1-A64E-35942AACF049}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,112 +1120,122 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
+      <c r="C2" t="str">
+        <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0915204715</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0952840196</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0928547163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0911033031</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>53</v>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0926395412</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>54</v>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0953957478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>55</v>
+      <c r="C8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0929658455</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>56</v>
+      <c r="C9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0976093029</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
+      <c r="C10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0931124060</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>58</v>
+      <c r="C11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0994412369</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1246,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B1ABD5-6910-4F95-BD6B-7BAE0ACE3857}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1284,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1302,9 +1281,10 @@
         <v>5S</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D2" s="7">
+        <f>VLOOKUP(B2, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1317,9 +1297,10 @@
         <v>9S</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7">
+        <f>VLOOKUP(B3, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
     </row>
@@ -1332,9 +1313,10 @@
         <v>7S</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="2">
+        <v>44</v>
+      </c>
+      <c r="D4" s="7">
+        <f>VLOOKUP(B4, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
     </row>
@@ -1347,9 +1329,10 @@
         <v>5S</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
+        <f>VLOOKUP(B5, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1362,9 +1345,10 @@
         <v>5S</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7">
+        <f>VLOOKUP(B6, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1377,9 +1361,10 @@
         <v>7S</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7">
+        <f>VLOOKUP(B7, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
     </row>
@@ -1392,9 +1377,10 @@
         <v>7S</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <f>VLOOKUP(B8, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
     </row>
@@ -1407,9 +1393,10 @@
         <v>9S</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="2">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <f>VLOOKUP(B9, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
     </row>
@@ -1422,9 +1409,10 @@
         <v>9S</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7">
+        <f>VLOOKUP(B10, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
     </row>
@@ -1437,9 +1425,10 @@
         <v>5S</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
+        <f>VLOOKUP(B11, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1451,10 +1440,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DBA4C5-8679-4D47-A916-48BDE8DE0117}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1475,30 +1465,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B2" t="str">
         <f>Customer!A2</f>
@@ -1512,7 +1502,7 @@
         <v>45061</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1527,7 +1517,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B3" t="str">
         <f>Customer!A3</f>
@@ -1541,7 +1531,7 @@
         <v>45062</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -1556,7 +1546,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B4" t="str">
         <f>Customer!A4</f>
@@ -1570,7 +1560,7 @@
         <v>45103</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -1585,7 +1575,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B5" t="str">
         <f>Customer!A5</f>
@@ -1599,7 +1589,7 @@
         <v>45210</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1614,7 +1604,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B6" t="str">
         <f>Customer!A6</f>
@@ -1628,7 +1618,7 @@
         <v>45243</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -1643,7 +1633,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B7" t="str">
         <f>Customer!A7</f>
@@ -1657,7 +1647,7 @@
         <v>45132</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -1672,7 +1662,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B8" t="str">
         <f>Customer!A8</f>
@@ -1686,7 +1676,7 @@
         <v>45203</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>17</v>
@@ -1701,7 +1691,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B9" t="str">
         <f>Customer!A9</f>
@@ -1715,7 +1705,7 @@
         <v>45216</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1730,7 +1720,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B10" t="str">
         <f>Customer!A10</f>
@@ -1744,7 +1734,7 @@
         <v>45237</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1759,7 +1749,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B11" t="str">
         <f>Customer!A11</f>
@@ -1773,7 +1763,7 @@
         <v>45263</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1795,10 +1785,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E9938-6653-4FDF-B2FB-FC59F5322A7A}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1814,21 +1805,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B2" t="str">
         <f>Customer!A2</f>
@@ -1841,12 +1832,12 @@
         <v>45061</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B3" t="str">
         <f>Customer!A3</f>
@@ -1859,12 +1850,12 @@
         <v>45062</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B4" t="str">
         <f>Customer!A4</f>
@@ -1877,12 +1868,12 @@
         <v>45103</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B5" t="str">
         <f>Customer!A5</f>
@@ -1895,12 +1886,12 @@
         <v>45210</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B6" t="str">
         <f>Customer!A6</f>
@@ -1913,12 +1904,12 @@
         <v>45243</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B7" t="str">
         <f>Customer!A7</f>
@@ -1931,12 +1922,12 @@
         <v>45132</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B8" t="str">
         <f>Customer!A8</f>
@@ -1949,12 +1940,12 @@
         <v>45203</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B9" t="str">
         <f>Customer!A9</f>
@@ -1967,12 +1958,12 @@
         <v>45216</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B10" t="str">
         <f>Customer!A10</f>
@@ -1985,12 +1976,12 @@
         <v>45237</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B11" t="str">
         <f>Customer!A11</f>
@@ -2003,11 +1994,62 @@
         <v>45263</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5962A3-9EDB-4662-9CE9-E1812DEF67ED}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangd\Documents\USTH\2nd year\Advanced Programming with Python\Taxi-Information-Management-System-\Code Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9493C2A-ACFF-4C9F-80D5-5392F20D9809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8544302-6177-4B18-B2E1-A674483371EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Driver" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Customer" sheetId="2" r:id="rId1"/>
+    <sheet name="Driver" sheetId="8" r:id="rId2"/>
     <sheet name="Vehicle" sheetId="3" r:id="rId3"/>
     <sheet name="Invoice" sheetId="4" r:id="rId4"/>
     <sheet name="Feedback" sheetId="5" r:id="rId5"/>
@@ -401,14 +401,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="\(\+\8\4\)\ ###\ ###\ ####"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,12 +435,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Ubuntu"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -475,13 +468,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -796,308 +791,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21DB4D1-962D-406B-8B67-B7481A2A798D}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0962477921</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6">
-        <v>15000000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0904331550</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6">
-        <v>12000000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0952238995</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6">
-        <v>14000000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>64</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0994007366</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6">
-        <v>15000000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0905692102</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
-        <v>17000000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0935960925</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>17000000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>27</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0929069754</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20000000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>49</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0937851666</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="6">
-        <v>19000000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>44</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0995345699</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="6">
-        <v>19000000</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>42</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0926964141</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="6">
-        <v>16000000</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>23</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39120E7-1E9E-45C1-A64E-35942AACF049}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1127,7 +826,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0915204715</v>
+        <v>0954634732</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1139,7 +838,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0952840196</v>
+        <v>0961676770</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1151,7 +850,7 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0928547163</v>
+        <v>0912100830</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1163,7 +862,7 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0911033031</v>
+        <v>0954202159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1175,7 +874,7 @@
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0926395412</v>
+        <v>0988448004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1187,7 +886,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0953957478</v>
+        <v>0953755328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1199,7 +898,7 @@
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0929658455</v>
+        <v>0913936841</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1211,7 +910,7 @@
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0976093029</v>
+        <v>0979388070</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1223,7 +922,7 @@
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0931124060</v>
+        <v>0905902378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1235,11 +934,294 @@
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0994412369</v>
+        <v>0995118419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23CE06B-105A-46AE-AF68-3504EE732517}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0907470983</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0900587099</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0934594033</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="7">
+        <v>14000000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0919642929</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0994539255</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7">
+        <v>17000000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0968413229</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7">
+        <v>17000000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0999717523</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20000000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0985491200</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7">
+        <v>19000000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0949826026</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7">
+        <v>19000000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0968390244</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="8">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1249,7 +1231,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1283,7 +1265,7 @@
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <f>VLOOKUP(B2, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
@@ -1299,7 +1281,7 @@
       <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <f>VLOOKUP(B3, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
@@ -1315,7 +1297,7 @@
       <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>VLOOKUP(B4, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
@@ -1331,7 +1313,7 @@
       <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <f>VLOOKUP(B5, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
@@ -1347,7 +1329,7 @@
       <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <f>VLOOKUP(B6, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
@@ -1363,7 +1345,7 @@
       <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <f>VLOOKUP(B7, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
@@ -1379,7 +1361,7 @@
       <c r="C8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <f>VLOOKUP(B8, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
@@ -1395,7 +1377,7 @@
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <f>VLOOKUP(B9, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
@@ -1411,7 +1393,7 @@
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <f>VLOOKUP(B10, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
@@ -1427,7 +1409,7 @@
       <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <f>VLOOKUP(B11, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
@@ -1444,14 +1426,14 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1498,7 +1480,7 @@
         <f>Driver!A2</f>
         <v>D1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>45061</v>
       </c>
       <c r="E2" t="s">
@@ -1507,7 +1489,7 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>10000</v>
       </c>
       <c r="H2" s="2">
@@ -1527,7 +1509,7 @@
         <f>Driver!A3</f>
         <v>D2</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>45062</v>
       </c>
       <c r="E3" t="s">
@@ -1556,7 +1538,7 @@
         <f>Driver!A4</f>
         <v>D3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>45103</v>
       </c>
       <c r="E4" t="s">
@@ -1585,7 +1567,7 @@
         <f>Driver!A5</f>
         <v>D4</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>45210</v>
       </c>
       <c r="E5" t="s">
@@ -1594,7 +1576,7 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>10000</v>
       </c>
       <c r="H5" s="2">
@@ -1614,7 +1596,7 @@
         <f>Driver!A6</f>
         <v>D5</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>45243</v>
       </c>
       <c r="E6" t="s">
@@ -1623,7 +1605,7 @@
       <c r="F6">
         <v>16</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>10000</v>
       </c>
       <c r="H6" s="2">
@@ -1643,7 +1625,7 @@
         <f>Driver!A7</f>
         <v>D6</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>45132</v>
       </c>
       <c r="E7" t="s">
@@ -1672,7 +1654,7 @@
         <f>Driver!A8</f>
         <v>D7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>45203</v>
       </c>
       <c r="E8" t="s">
@@ -1701,7 +1683,7 @@
         <f>Driver!A9</f>
         <v>D8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>45216</v>
       </c>
       <c r="E9" t="s">
@@ -1730,7 +1712,7 @@
         <f>Driver!A10</f>
         <v>D9</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>45237</v>
       </c>
       <c r="E10" t="s">
@@ -1759,7 +1741,7 @@
         <f>Driver!A11</f>
         <v>D10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>45263</v>
       </c>
       <c r="E11" t="s">
@@ -1768,7 +1750,7 @@
       <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>10000</v>
       </c>
       <c r="H11" s="2">
@@ -1828,7 +1810,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>45061</v>
       </c>
       <c r="E2" t="s">
@@ -1846,7 +1828,7 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>45062</v>
       </c>
       <c r="E3" t="s">
@@ -1864,7 +1846,7 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>45103</v>
       </c>
       <c r="E4" t="s">
@@ -1882,7 +1864,7 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>45210</v>
       </c>
       <c r="E5" t="s">
@@ -1900,7 +1882,7 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>45243</v>
       </c>
       <c r="E6" t="s">
@@ -1918,7 +1900,7 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>45132</v>
       </c>
       <c r="E7" t="s">
@@ -1936,7 +1918,7 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>45203</v>
       </c>
       <c r="E8" t="s">
@@ -1954,7 +1936,7 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>45216</v>
       </c>
       <c r="E9" t="s">
@@ -1972,7 +1954,7 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>45237</v>
       </c>
       <c r="E10" t="s">
@@ -1990,7 +1972,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>45263</v>
       </c>
       <c r="E11" t="s">
@@ -2008,7 +1990,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangd\Documents\USTH\2nd year\Advanced Programming with Python\Taxi-Information-Management-System-\Code Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8544302-6177-4B18-B2E1-A674483371EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C064EB-4B82-4262-AEF4-43ED9E11AB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
+    <workbookView xWindow="4890" yWindow="2310" windowWidth="21600" windowHeight="11295" xr2:uid="{BBE85366-B69A-412E-B95A-95EC528A2AE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
-    <sheet name="Driver" sheetId="8" r:id="rId2"/>
+    <sheet name="Driver" sheetId="9" r:id="rId2"/>
     <sheet name="Vehicle" sheetId="3" r:id="rId3"/>
     <sheet name="Invoice" sheetId="4" r:id="rId4"/>
     <sheet name="Feedback" sheetId="5" r:id="rId5"/>
@@ -91,12 +91,6 @@
     <t>Barker</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>phone_num</t>
   </si>
   <si>
@@ -395,6 +389,12 @@
   </si>
   <si>
     <t>9s</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -795,8 +795,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,127 +814,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0954634732</v>
+        <v>0947283453</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0961676770</v>
+        <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0914593916</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>0912100830</v>
+        <f t="shared" ref="C4:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
+        <v>0948593818</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0954202159</v>
+        <v>0912253940</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0988448004</v>
+        <v>0926723569</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0953755328</v>
+        <v>0942211822</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0913936841</v>
+        <v>0903648620</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0979388070</v>
+        <v>0900665941</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0905902378</v>
+        <v>0902198917</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0995118419</v>
+        <v>0970893274</v>
       </c>
     </row>
   </sheetData>
@@ -944,18 +944,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23CE06B-105A-46AE-AF68-3504EE732517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB72634-A3B7-453D-8E0C-B3D18795D5DF}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -966,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -983,23 +981,23 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="str">
         <f ca="1">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0907470983</v>
+        <v>0900514339</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7">
         <v>15000000</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G2" s="8">
         <v>18</v>
@@ -1007,23 +1005,23 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="str">
         <f t="shared" ref="C3:C11" ca="1" si="0">0&amp;RANDBETWEEN(900000000,999999999)</f>
-        <v>0900587099</v>
+        <v>0909660416</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7">
         <v>12000000</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G3" s="8">
         <v>30</v>
@@ -1031,23 +1029,23 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0934594033</v>
+        <v>0961232848</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7">
         <v>14000000</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G4" s="8">
         <v>64</v>
@@ -1055,23 +1053,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0919642929</v>
+        <v>0914668045</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7">
         <v>15000000</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G5" s="8">
         <v>28</v>
@@ -1079,23 +1077,23 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0994539255</v>
+        <v>0905208178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7">
         <v>17000000</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G6" s="8">
         <v>34</v>
@@ -1103,23 +1101,23 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0968413229</v>
+        <v>0992648651</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7">
         <v>17000000</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G7" s="8">
         <v>27</v>
@@ -1127,23 +1125,23 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0999717523</v>
+        <v>0943860045</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7">
         <v>20000000</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G8" s="8">
         <v>49</v>
@@ -1151,23 +1149,23 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0985491200</v>
+        <v>0964905651</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7">
         <v>19000000</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G9" s="8">
         <v>44</v>
@@ -1175,23 +1173,23 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0949826026</v>
+        <v>0989498445</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="7">
         <v>19000000</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G10" s="8">
         <v>42</v>
@@ -1199,23 +1197,23 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0968390244</v>
+        <v>0905860329</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7">
         <v>16000000</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="G11" s="8">
         <v>23</v>
@@ -1245,25 +1243,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="str">
         <f>LEFT(A2,2)</f>
         <v>5S</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5">
         <f>VLOOKUP(B2, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1272,14 +1270,14 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B11" si="0">LEFT(A3,2)</f>
         <v>9S</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5">
         <f>VLOOKUP(B3, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1288,14 +1286,14 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>7S</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="5">
         <f>VLOOKUP(B4, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1304,14 +1302,14 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>5S</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5">
         <f>VLOOKUP(B5, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1320,14 +1318,14 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>5S</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5">
         <f>VLOOKUP(B6, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1336,14 +1334,14 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>7S</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="5">
         <f>VLOOKUP(B7, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1352,14 +1350,14 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>7S</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5">
         <f>VLOOKUP(B8, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1368,14 +1366,14 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>9S</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5">
         <f>VLOOKUP(B9, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1384,14 +1382,14 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>9S</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5">
         <f>VLOOKUP(B10, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1400,14 +1398,14 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>5S</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5">
         <f>VLOOKUP(B11, 'Price per Km'!$A$2:$B$4,2,0)</f>
@@ -1426,14 +1424,14 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1447,30 +1445,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="str">
         <f>Customer!A2</f>
@@ -1484,7 +1482,7 @@
         <v>45061</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1499,7 +1497,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="str">
         <f>Customer!A3</f>
@@ -1513,7 +1511,7 @@
         <v>45062</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -1528,7 +1526,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="str">
         <f>Customer!A4</f>
@@ -1542,7 +1540,7 @@
         <v>45103</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <v>11</v>
@@ -1557,7 +1555,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="str">
         <f>Customer!A5</f>
@@ -1571,7 +1569,7 @@
         <v>45210</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1586,7 +1584,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="str">
         <f>Customer!A6</f>
@@ -1600,7 +1598,7 @@
         <v>45243</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -1615,7 +1613,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="str">
         <f>Customer!A7</f>
@@ -1629,7 +1627,7 @@
         <v>45132</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -1644,7 +1642,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" t="str">
         <f>Customer!A8</f>
@@ -1658,7 +1656,7 @@
         <v>45203</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8">
         <v>17</v>
@@ -1673,7 +1671,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="str">
         <f>Customer!A9</f>
@@ -1687,7 +1685,7 @@
         <v>45216</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1702,7 +1700,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" t="str">
         <f>Customer!A10</f>
@@ -1716,7 +1714,7 @@
         <v>45237</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1731,7 +1729,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" t="str">
         <f>Customer!A11</f>
@@ -1745,7 +1743,7 @@
         <v>45263</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1787,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" t="str">
         <f>Customer!A2</f>
@@ -1814,12 +1812,12 @@
         <v>45061</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" t="str">
         <f>Customer!A3</f>
@@ -1832,12 +1830,12 @@
         <v>45062</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" t="str">
         <f>Customer!A4</f>
@@ -1850,12 +1848,12 @@
         <v>45103</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" t="str">
         <f>Customer!A5</f>
@@ -1868,12 +1866,12 @@
         <v>45210</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" t="str">
         <f>Customer!A6</f>
@@ -1886,12 +1884,12 @@
         <v>45243</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" t="str">
         <f>Customer!A7</f>
@@ -1904,12 +1902,12 @@
         <v>45132</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B8" t="str">
         <f>Customer!A8</f>
@@ -1922,12 +1920,12 @@
         <v>45203</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B9" t="str">
         <f>Customer!A9</f>
@@ -1940,12 +1938,12 @@
         <v>45216</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="str">
         <f>Customer!A10</f>
@@ -1958,12 +1956,12 @@
         <v>45237</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" t="str">
         <f>Customer!A11</f>
@@ -1976,7 +1974,7 @@
         <v>45263</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2001,15 +1999,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2">
         <v>10000</v>
@@ -2017,7 +2015,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2">
         <v>13000</v>
@@ -2025,7 +2023,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2">
         <v>15000</v>

--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -8,39 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dangd\Documents\USTH\2nd year\Advanced Programming with Python\Taxi-Information-Management-System-\Code Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB5F1DD-A6C5-4A64-80C9-882CDB47936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E9E42F-7B3B-4FB5-8C9B-77C6E471C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Driver" sheetId="2" r:id="rId2"/>
-    <sheet name="Vehicle" sheetId="3" r:id="rId3"/>
-    <sheet name="Invoice" sheetId="4" r:id="rId4"/>
-    <sheet name="Price per Km" sheetId="5" r:id="rId5"/>
+    <sheet name="Vehicle" sheetId="4" r:id="rId3"/>
+    <sheet name="Invoice" sheetId="5" r:id="rId4"/>
+    <sheet name="Price per Km" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -57,60 +41,90 @@
     <t>Obama</t>
   </si>
   <si>
+    <t>0990154927</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
     <t>Trump</t>
   </si>
   <si>
+    <t>0994586705</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
     <t>Lincole</t>
   </si>
   <si>
+    <t>0993224669</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
     <t>Wasington</t>
   </si>
   <si>
+    <t>0992006894</t>
+  </si>
+  <si>
     <t>C5</t>
   </si>
   <si>
     <t>Machiel</t>
   </si>
   <si>
+    <t>0995267883</t>
+  </si>
+  <si>
     <t>C6</t>
   </si>
   <si>
     <t>Kalanith</t>
   </si>
   <si>
+    <t>0992111784</t>
+  </si>
+  <si>
     <t>C7</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
+    <t>0999469153</t>
+  </si>
+  <si>
     <t>C8</t>
   </si>
   <si>
     <t>London</t>
   </si>
   <si>
+    <t>0995597996</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
     <t>Francais</t>
   </si>
   <si>
+    <t>0994908696</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
     <t>Martel</t>
   </si>
   <si>
+    <t>0990811244</t>
+  </si>
+  <si>
     <t>vehicle_id</t>
   </si>
   <si>
@@ -129,6 +143,9 @@
     <t>Bob</t>
   </si>
   <si>
+    <t>0994109078</t>
+  </si>
+  <si>
     <t>5S123</t>
   </si>
   <si>
@@ -141,6 +158,9 @@
     <t>James</t>
   </si>
   <si>
+    <t>0996231061</t>
+  </si>
+  <si>
     <t>9S321</t>
   </si>
   <si>
@@ -150,6 +170,9 @@
     <t>Charle</t>
   </si>
   <si>
+    <t>0991555385</t>
+  </si>
+  <si>
     <t>7S444</t>
   </si>
   <si>
@@ -162,6 +185,9 @@
     <t>Max</t>
   </si>
   <si>
+    <t>0990737267</t>
+  </si>
+  <si>
     <t>5S322</t>
   </si>
   <si>
@@ -171,6 +197,9 @@
     <t>Chris</t>
   </si>
   <si>
+    <t>0990454930</t>
+  </si>
+  <si>
     <t>5S111</t>
   </si>
   <si>
@@ -180,6 +209,9 @@
     <t>Mark</t>
   </si>
   <si>
+    <t>0997945252</t>
+  </si>
+  <si>
     <t>7S333</t>
   </si>
   <si>
@@ -189,6 +221,9 @@
     <t>Joey</t>
   </si>
   <si>
+    <t>0999800731</t>
+  </si>
+  <si>
     <t>7S932</t>
   </si>
   <si>
@@ -198,6 +233,9 @@
     <t>Paul</t>
   </si>
   <si>
+    <t>0992376425</t>
+  </si>
+  <si>
     <t>9S233</t>
   </si>
   <si>
@@ -207,6 +245,9 @@
     <t>Eric</t>
   </si>
   <si>
+    <t>0995920106</t>
+  </si>
+  <si>
     <t>9S193</t>
   </si>
   <si>
@@ -216,6 +257,9 @@
     <t>Barker</t>
   </si>
   <si>
+    <t>0996309582</t>
+  </si>
+  <si>
     <t>5S094</t>
   </si>
   <si>
@@ -228,6 +272,45 @@
     <t>price</t>
   </si>
   <si>
+    <t>5S</t>
+  </si>
+  <si>
+    <t>29-B1 423.23</t>
+  </si>
+  <si>
+    <t>9S</t>
+  </si>
+  <si>
+    <t>29-C1 312.93</t>
+  </si>
+  <si>
+    <t>7S</t>
+  </si>
+  <si>
+    <t>29-D1 123.32</t>
+  </si>
+  <si>
+    <t>29-B2 445.63</t>
+  </si>
+  <si>
+    <t>29-C2 278.42</t>
+  </si>
+  <si>
+    <t>29-D2 444.44</t>
+  </si>
+  <si>
+    <t>29-B3 888.88</t>
+  </si>
+  <si>
+    <t>29-C3 999.99</t>
+  </si>
+  <si>
+    <t>29-D3 100.00</t>
+  </si>
+  <si>
+    <t>29-B4 344.44</t>
+  </si>
+  <si>
     <t>customer_id</t>
   </si>
   <si>
@@ -300,104 +383,43 @@
     <t>9s</t>
   </si>
   <si>
-    <t>29-B1 423.23</t>
-  </si>
-  <si>
-    <t>29-C1 312.93</t>
-  </si>
-  <si>
-    <t>29-D1 123.32</t>
-  </si>
-  <si>
-    <t>29-B2 445.63</t>
-  </si>
-  <si>
-    <t>29-C2 278.42</t>
-  </si>
-  <si>
-    <t>29-D2 444.44</t>
-  </si>
-  <si>
-    <t>29-B3 888.88</t>
-  </si>
-  <si>
-    <t>29-C3 999.99</t>
-  </si>
-  <si>
-    <t>29-D3 100.00</t>
-  </si>
-  <si>
-    <t>29-B4 344.44</t>
-  </si>
-  <si>
-    <t>0994109078</t>
-  </si>
-  <si>
-    <t>0996231061</t>
-  </si>
-  <si>
-    <t>0991555385</t>
-  </si>
-  <si>
-    <t>0990737267</t>
-  </si>
-  <si>
-    <t>0990454930</t>
-  </si>
-  <si>
-    <t>0997945252</t>
-  </si>
-  <si>
-    <t>0999800731</t>
-  </si>
-  <si>
-    <t>0992376425</t>
-  </si>
-  <si>
-    <t>0995920106</t>
-  </si>
-  <si>
-    <t>0996309582</t>
-  </si>
-  <si>
-    <t>0990154927</t>
-  </si>
-  <si>
-    <t>0994586705</t>
-  </si>
-  <si>
-    <t>0993224669</t>
-  </si>
-  <si>
-    <t>0992006894</t>
-  </si>
-  <si>
-    <t>0995267883</t>
-  </si>
-  <si>
-    <t>0992111784</t>
-  </si>
-  <si>
-    <t>0999469153</t>
-  </si>
-  <si>
-    <t>0995597996</t>
-  </si>
-  <si>
-    <t>0994908696</t>
-  </si>
-  <si>
-    <t>0990811244</t>
+    <t>2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
+  </si>
+  <si>
+    <t>2022-07-22</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-08-20</t>
+  </si>
+  <si>
+    <t>2022-04-08</t>
+  </si>
+  <si>
+    <t>2022-07-08</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2022-07-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -448,21 +470,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -781,7 +804,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -810,106 +833,106 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +946,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -944,36 +967,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>15000000</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4">
         <v>18</v>
@@ -981,22 +1004,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3">
         <v>12000000</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4">
         <v>30</v>
@@ -1004,22 +1027,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>14000000</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4">
         <v>64</v>
@@ -1027,22 +1050,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3">
         <v>15000000</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4">
         <v>28</v>
@@ -1050,22 +1073,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3">
         <v>17000000</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G6" s="4">
         <v>34</v>
@@ -1073,22 +1096,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>17000000</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4">
         <v>27</v>
@@ -1096,22 +1119,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3">
         <v>20000000</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4">
         <v>49</v>
@@ -1119,22 +1142,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3">
         <v>19000000</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4">
         <v>44</v>
@@ -1142,22 +1165,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3">
         <v>19000000</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G10" s="4">
         <v>42</v>
@@ -1165,22 +1188,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E11" s="3">
         <v>16000000</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4">
         <v>23</v>
@@ -1188,15 +1211,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1210,172 +1233,152 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B11" si="0">LEFT(A2,2)</f>
-        <v>5S</v>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D2" s="5">
-        <f>VLOOKUP(B2, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>9S</v>
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="5">
-        <f>VLOOKUP(B3, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>7S</v>
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5">
-        <f>VLOOKUP(B4, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>5S</v>
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5">
-        <f>VLOOKUP(B5, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>5S</v>
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5">
-        <f>VLOOKUP(B6, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>7S</v>
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5">
-        <f>VLOOKUP(B7, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>7S</v>
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="5">
-        <f>VLOOKUP(B8, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>13000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>9S</v>
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="5">
-        <f>VLOOKUP(B9, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>9S</v>
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5">
-        <f>VLOOKUP(B10, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>5S</v>
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5">
-        <f>VLOOKUP(B11, 'Price per Km'!$A$2:$B$4,2,0)</f>
         <v>10000</v>
       </c>
     </row>
@@ -1386,11 +1389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -1398,7 +1401,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -1411,44 +1414,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="str">
-        <f>Customer!A2</f>
-        <v>C1</v>
-      </c>
-      <c r="C2" t="str">
-        <f>Driver!A2</f>
-        <v>D1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>45061</v>
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1456,86 +1457,77 @@
       <c r="G2" s="5">
         <v>10000</v>
       </c>
-      <c r="H2" s="7">
-        <f t="shared" ref="H2:H11" si="0">F2*G2</f>
+      <c r="H2" s="6">
         <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" t="str">
-        <f>Customer!A3</f>
-        <v>C2</v>
-      </c>
-      <c r="C3" t="str">
-        <f>Driver!A3</f>
-        <v>D2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>45062</v>
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F3">
         <v>8</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>15000</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" si="0"/>
+      <c r="H3" s="6">
         <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="str">
-        <f>Customer!A4</f>
-        <v>C3</v>
-      </c>
-      <c r="C4" t="str">
-        <f>Driver!A4</f>
-        <v>D3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>45103</v>
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>13000</v>
       </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
+      <c r="H4" s="6">
         <v>143000</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="str">
-        <f>Customer!A5</f>
-        <v>C4</v>
-      </c>
-      <c r="C5" t="str">
-        <f>Driver!A5</f>
-        <v>D4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>45210</v>
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -1543,28 +1535,25 @@
       <c r="G5" s="5">
         <v>10000</v>
       </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
+      <c r="H5" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="str">
-        <f>Customer!A6</f>
-        <v>C5</v>
-      </c>
-      <c r="C6" t="str">
-        <f>Driver!A6</f>
-        <v>D5</v>
-      </c>
-      <c r="D6" s="6">
-        <v>45243</v>
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>16</v>
@@ -1572,144 +1561,129 @@
       <c r="G6" s="5">
         <v>10000</v>
       </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
+      <c r="H6" s="6">
         <v>160000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="str">
-        <f>Customer!A7</f>
-        <v>C6</v>
-      </c>
-      <c r="C7" t="str">
-        <f>Driver!A7</f>
-        <v>D6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45132</v>
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>21</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>13000</v>
       </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
+      <c r="H7" s="6">
         <v>273000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="str">
-        <f>Customer!A8</f>
-        <v>C7</v>
-      </c>
-      <c r="C8" t="str">
-        <f>Driver!A8</f>
-        <v>D7</v>
-      </c>
-      <c r="D8" s="6">
-        <v>45203</v>
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F8">
         <v>17</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>13000</v>
       </c>
-      <c r="H8" s="7">
-        <f t="shared" si="0"/>
+      <c r="H8" s="6">
         <v>221000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="str">
-        <f>Customer!A9</f>
-        <v>C8</v>
-      </c>
-      <c r="C9" t="str">
-        <f>Driver!A9</f>
-        <v>D8</v>
-      </c>
-      <c r="D9" s="6">
-        <v>45216</v>
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>7</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>15000</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
+      <c r="H9" s="6">
         <v>105000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="str">
-        <f>Customer!A10</f>
-        <v>C9</v>
-      </c>
-      <c r="C10" t="str">
-        <f>Driver!A10</f>
-        <v>D9</v>
-      </c>
-      <c r="D10" s="6">
-        <v>45237</v>
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>15000</v>
       </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
+      <c r="H10" s="6">
         <v>90000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="str">
-        <f>Customer!A11</f>
-        <v>C10</v>
-      </c>
-      <c r="C11" t="str">
-        <f>Driver!A11</f>
-        <v>D10</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45263</v>
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -1717,19 +1691,18 @@
       <c r="G11" s="5">
         <v>10000</v>
       </c>
-      <c r="H11" s="7">
-        <f t="shared" si="0"/>
+      <c r="H11" s="6">
         <v>30000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1744,33 +1717,33 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="7">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="7">
+        <v>117</v>
+      </c>
+      <c r="B3" s="6">
         <v>13000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="7">
+        <v>118</v>
+      </c>
+      <c r="B4" s="6">
         <v>15000</v>
       </c>
     </row>

--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -2,51 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Driver" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Vehicle" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Invoice" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Price per Km" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0;[RED]#,##0"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
-  <fonts count="6">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -57,9 +36,9 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri "/>
-      <charset val="1"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
@@ -81,61 +60,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="17">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -492,50 +429,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="4.14" customWidth="1" style="8" min="1" max="1"/>
-    <col width="12.14" customWidth="1" style="8" min="2" max="2"/>
-    <col width="18" customWidth="1" style="8" min="3" max="3"/>
-    <col width="15.76" customWidth="1" style="8" min="4" max="4"/>
+    <col width="5.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="13.9" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>phone_num</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>chosen_vehicle</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C325</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -554,10 +491,10 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C790</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -576,10 +513,10 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C061</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -598,10 +535,10 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="9">
+    <row r="5" ht="13.9" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C905</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -620,10 +557,10 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="9">
+    <row r="6" ht="13.9" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C299</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -642,10 +579,10 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="9">
+    <row r="7" ht="13.9" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -664,10 +601,10 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="9">
+    <row r="8" ht="13.9" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C246</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -686,10 +623,10 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="9">
+    <row r="9" ht="13.9" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C349</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -708,10 +645,10 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="9">
+    <row r="10" ht="13.9" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C813</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -730,10 +667,10 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="9">
+    <row r="11" ht="13.9" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -752,73 +689,98 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C145</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sdgfhsdrth</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0961442325</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5S</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="5.57" customWidth="1" style="8" min="1" max="1"/>
-    <col width="12.43" customWidth="1" style="8" min="3" max="3"/>
-    <col width="12.71" customWidth="1" style="8" min="5" max="5"/>
+    <col width="5.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="6.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="7.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="4.140625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>phone_num</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>vehicle_id</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>salary</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gender</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D046</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -848,10 +810,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D032</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -881,10 +843,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D394</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -914,10 +876,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D674</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -947,10 +909,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="9">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D917</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -980,10 +942,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="9">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D290</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1013,10 +975,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="9">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D636</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1046,10 +1008,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D462</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1079,10 +1041,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="9">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D005</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1112,10 +1074,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="9">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D754</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1145,53 +1107,98 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D375</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sdfgdfhrtjh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0972122478</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5S778</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6354673</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="13.28" customWidth="1" style="8" min="3" max="3"/>
+    <col width="6" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="6" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>regis_num</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="9">
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>assigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>5S123</t>
@@ -1211,7 +1218,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>9S321</t>
@@ -1231,7 +1238,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>7S444</t>
@@ -1251,7 +1258,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>5S322</t>
@@ -1271,7 +1278,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="9">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>5S111</t>
@@ -1291,7 +1298,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="9">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>7S333</t>
@@ -1311,7 +1318,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="9">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>7S932</t>
@@ -1331,7 +1338,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>9S233</t>
@@ -1351,7 +1358,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="9">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>9S193</t>
@@ -1371,7 +1378,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="9">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>5S094</t>
@@ -1391,98 +1398,121 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5S778</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5S</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>29-C1 394.23</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col width="4.28" customWidth="1" style="8" min="1" max="1"/>
-    <col width="12.71" customWidth="1" style="8" min="2" max="2"/>
-    <col width="23" customWidth="1" style="8" min="3" max="3"/>
-    <col width="12.71" customWidth="1" style="8" min="4" max="4"/>
-    <col width="15.43" customWidth="1" style="8" min="5" max="5"/>
-    <col width="9.43" customWidth="1" style="8" min="6" max="6"/>
-    <col width="12.28" customWidth="1" style="8" min="7" max="7"/>
-    <col width="13.57" customWidth="1" style="8" min="8" max="8"/>
-    <col width="12.43" customWidth="1" style="8" min="9" max="9"/>
+    <col width="4.5703125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.42578125" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.140625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.28515625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="9.140625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="12.42578125" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="10" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>customer_id</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>driver_id</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>payment_mode</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>price_per_km</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_fee</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="9">
+    <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>I055</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C325</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="n">
-        <v>45061</v>
+          <t>D046</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-10-24</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1499,24 +1529,26 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="9">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>I534</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D2</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="n">
-        <v>45062</v>
+          <t>D032</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-05-05</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1533,24 +1565,26 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="9">
+    <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>I200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C3</t>
+          <t>C061</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D3</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>45103</v>
+          <t>D394</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-11-15</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1567,24 +1601,26 @@
         <v>143000</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="9">
+    <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I4</t>
+          <t>I937</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C4</t>
+          <t>C905</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D4</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>45210</v>
+          <t>D674</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-03-19</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1601,24 +1637,26 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="9">
+    <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I5</t>
+          <t>I731</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C299</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D5</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>45243</v>
+          <t>D917</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-03-19</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1635,24 +1673,26 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="9">
+    <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I6</t>
+          <t>I591</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C6</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D6</t>
-        </is>
-      </c>
-      <c r="D7" s="11" t="n">
-        <v>45132</v>
+          <t>D290</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-01-26</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1669,24 +1709,26 @@
         <v>273000</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="9">
+    <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I7</t>
+          <t>I830</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C246</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D7</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="n">
-        <v>45203</v>
+          <t>D636</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1703,24 +1745,26 @@
         <v>221000</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="9">
+    <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I8</t>
+          <t>I271</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C8</t>
+          <t>C349</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D8</t>
-        </is>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>45216</v>
+          <t>D462</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1737,24 +1781,26 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="9">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I9</t>
+          <t>I494</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C9</t>
+          <t>C813</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D9</t>
-        </is>
-      </c>
-      <c r="D10" s="11" t="n">
-        <v>45237</v>
+          <t>D005</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2022-08-07</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1771,24 +1817,26 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="9">
+    <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I10</t>
+          <t>I007</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C172</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D10</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="n">
-        <v>45263</v>
+          <t>D754</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-02-26</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1806,75 +1854,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <cols>
-    <col width="13.71" customWidth="1" style="8" min="1" max="1"/>
-    <col width="14.28" customWidth="1" style="8" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1" s="9">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>no of seats</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="inlineStr">
-        <is>
-          <t>price per km</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="9">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>5s</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="9">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>7s</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="9">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>9s</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Code Part/Taxi-information.xlsx
+++ b/Code Part/Taxi-information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="148">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -467,20 +467,15 @@
   </si>
   <si>
     <t xml:space="preserve">2022-02-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -556,12 +551,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -569,7 +564,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,30 +591,30 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -623,189 +622,189 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -825,300 +824,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="0" t="n">
         <v>15000000</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="0" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="0" t="n">
         <v>12000000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="0" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="0" t="n">
         <v>14000000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="0" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="0" t="n">
         <v>15000000</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="0" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="0" t="n">
         <v>17000000</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="0" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="0" t="n">
         <v>17000000</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="0" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="0" t="n">
         <v>20000000</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="0" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="0" t="n">
         <v>19000000</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="0" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="0" t="n">
         <v>19000000</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="0" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="0" t="n">
         <v>16000000</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="0" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1138,219 +1136,219 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="F:F E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1370,335 +1368,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="1" sqref="F:F N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="0" t="n">
         <v>30000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="0" t="n">
         <v>120000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="0" t="n">
         <v>143000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="0" t="n">
         <v>200000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="0" t="n">
         <v>160000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="0" t="n">
         <v>273000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="0" t="n">
         <v>13000</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="0" t="n">
         <v>221000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="0" t="n">
         <v>105000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="0" t="n">
         <v>15000</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="0" t="n">
         <v>90000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="0" t="n">
         <v>30000</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <v>710000</v>
       </c>
     </row>
   </sheetData>
